--- a/grafiek.xlsx
+++ b/grafiek.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Renzo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Renzo\Documents\GitHub\RungeKutta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -630,7 +630,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3146,10 +3145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA102"/>
+  <dimension ref="B1:AA108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK61" sqref="AK61"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4293,6 +4292,54 @@
         <v>1.1185599999999999E-6</v>
       </c>
     </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="1">
+        <v>1.4285699999999999E-5</v>
+      </c>
+      <c r="C103" s="1">
+        <v>5.7071400000000002E-9</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="1">
+        <v>1.6666700000000001E-5</v>
+      </c>
+      <c r="C104" s="1">
+        <v>7.76804E-9</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="1">
+        <v>1.1111099999999999E-5</v>
+      </c>
+      <c r="C105" s="1">
+        <v>3.4525299999999999E-9</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="1">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="C106" s="1">
+        <v>4.3695199999999996E-9</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1.1185800000000001E-8</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2.7965E-9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/grafiek.xlsx
+++ b/grafiek.xlsx
@@ -24,42 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>time step size</t>
   </si>
   <si>
     <t>error</t>
-  </si>
-  <si>
-    <t>0.000166667</t>
-  </si>
-  <si>
-    <t>0.000142857</t>
-  </si>
-  <si>
-    <t>0.000125</t>
-  </si>
-  <si>
-    <t>0.000111111</t>
-  </si>
-  <si>
-    <t>0.0001</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>0.0005</t>
-  </si>
-  <si>
-    <t>0.000333333</t>
-  </si>
-  <si>
-    <t>0.00025</t>
-  </si>
-  <si>
-    <t>0.0002</t>
   </si>
   <si>
     <t>Forward Euler</t>
@@ -244,12 +214,84 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="105"/>
+              <c:layout/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$B$3:$B$62</c:f>
+              <c:f>Blad1!$B$3:$B$108</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="106"/>
                 <c:pt idx="0">
                   <c:v>1.9999999999999999E-7</c:v>
                 </c:pt>
@@ -401,44 +443,182 @@
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1111099999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.2500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4285699999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6666700000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>2.0000000000000002E-5</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
+                  <c:v>2.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>2.0408199999999999E-5</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="58">
                   <c:v>2.0833299999999999E-5</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="59">
+                  <c:v>2.1276599999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>2.17391E-5</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.1276599999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="61">
                   <c:v>2.2222199999999999E-5</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="62">
+                  <c:v>2.2727299999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>2.3255799999999998E-5</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.2727299999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="64">
+                  <c:v>2.38095E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>2.4390199999999999E-5</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.38095E-5</c:v>
+                <c:pt idx="66">
+                  <c:v>2.5000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.5641000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.63158E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.7027000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.77778E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.8571399999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.9411799999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.0303000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1250000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.2258100000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.3333300000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.4482800000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.5714299999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.7036999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.8461499999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.1666699999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.34783E-5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.5454500000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.7618999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.2631599999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.5555600000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.8823499999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.2500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.6666699999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.1428599999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.6923100000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.3333300000000004E-5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.09091E-5</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>1.11111E-4</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>1.25E-4</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>1.42857E-4</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>1.6666700000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>3.33333E-4</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$C$3:$C$62</c:f>
+              <c:f>Blad1!$C$3:$C$108</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="106"/>
                 <c:pt idx="0">
                   <c:v>2.6252299999999999E-13</c:v>
                 </c:pt>
@@ -590,34 +770,172 @@
                   <c:v>2.7965E-9</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>2.7965E-9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.4525299999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.3695199999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.7071400000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.76804E-9</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>1.1185800000000001E-8</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
+                  <c:v>1.1185800000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>1.16469E-8</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="58">
                   <c:v>1.2137299999999999E-8</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="59">
+                  <c:v>1.26592E-8</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>1.32158E-8</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.26592E-8</c:v>
-                </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="61">
                   <c:v>1.3809600000000001E-8</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="62">
+                  <c:v>1.44444E-8</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>1.5123900000000002E-8</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.44444E-8</c:v>
-                </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="64">
+                  <c:v>1.5852799999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>1.66355E-8</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.5852799999999999E-8</c:v>
+                <c:pt idx="66">
+                  <c:v>1.74777E-8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8385299999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.93657E-8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.0426699999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.1577300000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.28278E-8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.4190399999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.5678700000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.73087E-8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.9099000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.1071199999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.3250999999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.5668400000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.8359400000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.1366899999999997E-8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.4742300000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.8548599999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.2862E-8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.7776799999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.34103E-8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.9909900000000003E-8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.7462600000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.6308400000000003E-8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.6761000000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.09234E-7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.24284E-7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.42673E-7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.6546700000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.94194E-7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.3110700000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.7963900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.4523300000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.3693599999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.7069199999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.7677499999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.1185599999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7477400000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.1070999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.9909799999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.7963999999999999E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,10 +1402,10 @@
                   <c:v>1.9999999999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.9999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.0408199999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9999999999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.0408199999999999E-7</c:v>
@@ -1249,10 +1567,10 @@
                   <c:v>3.9340399999999997E-14</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3.1089299999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8.2875099999999995E-14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1089299999999998E-15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.0291100000000002E-15</c:v>
@@ -3147,8 +3465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3160,10 +3478,10 @@
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Z1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
@@ -3202,10 +3520,10 @@
         <v>1.8724899999999998E-12</v>
       </c>
       <c r="Z4" s="1">
-        <v>2.0408199999999999E-7</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.2875099999999995E-14</v>
+        <v>3.1089299999999998E-15</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
@@ -3216,10 +3534,10 @@
         <v>6.6874000000000004E-13</v>
       </c>
       <c r="Z5" s="1">
-        <v>1.9999999999999999E-7</v>
+        <v>2.0408199999999999E-7</v>
       </c>
       <c r="AA5" s="1">
-        <v>3.1089299999999998E-15</v>
+        <v>8.2875099999999995E-14</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
@@ -3882,10 +4200,10 @@
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
-        <v>2.0000000000000002E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C53" s="1">
-        <v>1.1185800000000001E-8</v>
+        <v>2.7965E-9</v>
       </c>
       <c r="Z53" s="1">
         <v>5.0000000000000004E-6</v>
@@ -3896,10 +4214,10 @@
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
-        <v>2.0408199999999999E-5</v>
+        <v>1.1111099999999999E-5</v>
       </c>
       <c r="C54" s="1">
-        <v>1.16469E-8</v>
+        <v>3.4525299999999999E-9</v>
       </c>
       <c r="Z54" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3910,437 +4228,440 @@
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
-        <v>2.0833299999999999E-5</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="C55" s="1">
-        <v>1.2137299999999999E-8</v>
+        <v>4.3695199999999996E-9</v>
       </c>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
-        <v>2.17391E-5</v>
+        <v>1.4285699999999999E-5</v>
       </c>
       <c r="C56" s="1">
-        <v>1.32158E-8</v>
+        <v>5.7071400000000002E-9</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
-        <v>2.1276599999999999E-5</v>
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="C57" s="1">
-        <v>1.26592E-8</v>
+        <v>7.76804E-9</v>
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
-        <v>2.2222199999999999E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="C58" s="1">
-        <v>1.3809600000000001E-8</v>
+        <v>1.1185800000000001E-8</v>
       </c>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
-        <v>2.3255799999999998E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="C59" s="1">
-        <v>1.5123900000000002E-8</v>
+        <v>1.1185800000000001E-8</v>
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
-        <v>2.2727299999999998E-5</v>
+        <v>2.0408199999999999E-5</v>
       </c>
       <c r="C60" s="1">
-        <v>1.44444E-8</v>
+        <v>1.16469E-8</v>
       </c>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
-        <v>2.4390199999999999E-5</v>
+        <v>2.0833299999999999E-5</v>
       </c>
       <c r="C61" s="1">
-        <v>1.66355E-8</v>
+        <v>1.2137299999999999E-8</v>
       </c>
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
-        <v>2.38095E-5</v>
+        <v>2.1276599999999999E-5</v>
       </c>
       <c r="C62" s="1">
-        <v>1.5852799999999999E-8</v>
+        <v>1.26592E-8</v>
       </c>
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
-        <v>2.5000000000000001E-5</v>
+        <v>2.17391E-5</v>
       </c>
       <c r="C63" s="1">
-        <v>1.74777E-8</v>
+        <v>1.32158E-8</v>
       </c>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
-        <v>2.63158E-5</v>
+        <v>2.2222199999999999E-5</v>
       </c>
       <c r="C64" s="1">
-        <v>1.93657E-8</v>
+        <v>1.3809600000000001E-8</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
-        <v>2.5641000000000001E-5</v>
+        <v>2.2727299999999998E-5</v>
       </c>
       <c r="C65" s="1">
-        <v>1.8385299999999999E-8</v>
+        <v>1.44444E-8</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
-        <v>2.77778E-5</v>
+        <v>2.3255799999999998E-5</v>
       </c>
       <c r="C66" s="1">
-        <v>2.1577300000000002E-8</v>
+        <v>1.5123900000000002E-8</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
-        <v>2.7027000000000001E-5</v>
+        <v>2.38095E-5</v>
       </c>
       <c r="C67" s="1">
-        <v>2.0426699999999999E-8</v>
+        <v>1.5852799999999999E-8</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
-        <v>2.9411799999999998E-5</v>
+        <v>2.4390199999999999E-5</v>
       </c>
       <c r="C68" s="1">
-        <v>2.4190399999999999E-8</v>
+        <v>1.66355E-8</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
-        <v>2.8571399999999999E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="C69" s="1">
-        <v>2.28278E-8</v>
+        <v>1.74777E-8</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
-        <v>3.0303000000000001E-5</v>
+        <v>2.5641000000000001E-5</v>
       </c>
       <c r="C70" s="1">
-        <v>2.5678700000000001E-8</v>
+        <v>1.8385299999999999E-8</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
-        <v>3.2258100000000002E-5</v>
+        <v>2.63158E-5</v>
       </c>
       <c r="C71" s="1">
-        <v>2.9099000000000001E-8</v>
+        <v>1.93657E-8</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
-        <v>3.1250000000000001E-5</v>
+        <v>2.7027000000000001E-5</v>
       </c>
       <c r="C72" s="1">
-        <v>2.73087E-8</v>
+        <v>2.0426699999999999E-8</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
-        <v>3.5714299999999998E-5</v>
+        <v>2.77778E-5</v>
       </c>
       <c r="C73" s="1">
-        <v>3.5668400000000001E-8</v>
+        <v>2.1577300000000002E-8</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
-        <v>3.4482800000000001E-5</v>
+        <v>2.8571399999999999E-5</v>
       </c>
       <c r="C74" s="1">
-        <v>3.3250999999999998E-8</v>
+        <v>2.28278E-8</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
-        <v>3.3333300000000002E-5</v>
+        <v>2.9411799999999998E-5</v>
       </c>
       <c r="C75" s="1">
-        <v>3.1071199999999998E-8</v>
+        <v>2.4190399999999999E-8</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
-        <v>3.8461499999999998E-5</v>
+        <v>3.0303000000000001E-5</v>
       </c>
       <c r="C76" s="1">
-        <v>4.1366899999999997E-8</v>
+        <v>2.5678700000000001E-8</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
-        <v>3.7036999999999998E-5</v>
+        <v>3.1250000000000001E-5</v>
       </c>
       <c r="C77" s="1">
-        <v>3.8359400000000001E-8</v>
+        <v>2.73087E-8</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
-        <v>4.1666699999999999E-5</v>
+        <v>3.2258100000000002E-5</v>
       </c>
       <c r="C78" s="1">
-        <v>4.8548599999999998E-8</v>
+        <v>2.9099000000000001E-8</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
-        <v>4.0000000000000003E-5</v>
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="C79" s="1">
-        <v>4.4742300000000001E-8</v>
+        <v>3.1071199999999998E-8</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
-        <v>4.7618999999999999E-5</v>
+        <v>3.4482800000000001E-5</v>
       </c>
       <c r="C80" s="1">
-        <v>6.34103E-8</v>
+        <v>3.3250999999999998E-8</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
-        <v>4.5454500000000003E-5</v>
+        <v>3.5714299999999998E-5</v>
       </c>
       <c r="C81" s="1">
-        <v>5.7776799999999998E-8</v>
+        <v>3.5668400000000001E-8</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
-        <v>4.34783E-5</v>
+        <v>3.7036999999999998E-5</v>
       </c>
       <c r="C82" s="1">
-        <v>5.2862E-8</v>
+        <v>3.8359400000000001E-8</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
-        <v>5.5555600000000001E-5</v>
+        <v>3.8461499999999998E-5</v>
       </c>
       <c r="C83" s="1">
-        <v>8.6308400000000003E-8</v>
+        <v>4.1366899999999997E-8</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
-        <v>5.2631599999999999E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="C84" s="1">
-        <v>7.7462600000000002E-8</v>
+        <v>4.4742300000000001E-8</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
-        <v>5.0000000000000002E-5</v>
+        <v>4.1666699999999999E-5</v>
       </c>
       <c r="C85" s="1">
-        <v>6.9909900000000003E-8</v>
+        <v>4.8548599999999998E-8</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
-        <v>6.6666699999999996E-5</v>
+        <v>4.34783E-5</v>
       </c>
       <c r="C86" s="1">
-        <v>1.24284E-7</v>
+        <v>5.2862E-8</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
-        <v>6.2500000000000001E-5</v>
+        <v>4.5454500000000003E-5</v>
       </c>
       <c r="C87" s="1">
-        <v>1.09234E-7</v>
+        <v>5.7776799999999998E-8</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
-        <v>5.8823499999999997E-5</v>
+        <v>4.7618999999999999E-5</v>
       </c>
       <c r="C88" s="1">
-        <v>9.6761000000000002E-8</v>
+        <v>6.34103E-8</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
-        <v>9.09091E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="C89" s="1">
-        <v>2.3110700000000001E-7</v>
+        <v>6.9909900000000003E-8</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
-        <v>8.3333300000000004E-5</v>
+        <v>5.2631599999999999E-5</v>
       </c>
       <c r="C90" s="1">
-        <v>1.94194E-7</v>
+        <v>7.7462600000000002E-8</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
-        <v>7.6923100000000002E-5</v>
+        <v>5.5555600000000001E-5</v>
       </c>
       <c r="C91" s="1">
-        <v>1.6546700000000001E-7</v>
+        <v>8.6308400000000003E-8</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
+        <v>5.8823499999999997E-5</v>
+      </c>
+      <c r="C92" s="1">
+        <v>9.6761000000000002E-8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>6.2500000000000001E-5</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1.09234E-7</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <v>6.6666699999999996E-5</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1.24284E-7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="1">
         <v>7.1428599999999996E-5</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C95" s="1">
         <v>1.42673E-7</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="1">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
+        <v>7.6923100000000002E-5</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1.6546700000000001E-7</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="1">
+        <v>8.3333300000000004E-5</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1.94194E-7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="1">
+        <v>9.09091E-5</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2.3110700000000001E-7</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>1E-4</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2.7963900000000001E-7</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>1.11111E-4</v>
+      </c>
+      <c r="C100" s="1">
+        <v>3.4523300000000001E-7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>1.25E-4</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4.3693599999999999E-7</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>1.42857E-4</v>
+      </c>
+      <c r="C102" s="1">
+        <v>5.7069199999999999E-7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>1.6666700000000001E-4</v>
+      </c>
+      <c r="C103" s="1">
         <v>7.7677499999999997E-7</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="1">
-        <v>5.7069199999999999E-7</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="1">
-        <v>4.3693599999999999E-7</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="1">
-        <v>3.4523300000000001E-7</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="1">
-        <v>2.7963900000000001E-7</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="1">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1.1185599999999999E-6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1.7477400000000001E-6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>3.33333E-4</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3.1070999999999999E-6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C107" s="1">
+        <v>6.9909799999999999E-6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>1E-3</v>
+      </c>
+      <c r="C108" s="1">
         <v>2.7963999999999999E-5</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="1">
-        <v>6.9909799999999999E-6</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="1">
-        <v>3.1070999999999999E-6</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" s="1">
-        <v>1.7477400000000001E-6</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="1">
-        <v>1.1185599999999999E-6</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="1">
-        <v>1.4285699999999999E-5</v>
-      </c>
-      <c r="C103" s="1">
-        <v>5.7071400000000002E-9</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="1">
-        <v>1.6666700000000001E-5</v>
-      </c>
-      <c r="C104" s="1">
-        <v>7.76804E-9</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="1">
-        <v>1.1111099999999999E-5</v>
-      </c>
-      <c r="C105" s="1">
-        <v>3.4525299999999999E-9</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="1">
-        <v>1.2500000000000001E-5</v>
-      </c>
-      <c r="C106" s="1">
-        <v>4.3695199999999996E-9</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="1">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="C107" s="1">
-        <v>1.1185800000000001E-8</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C108" s="1">
-        <v>2.7965E-9</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="Z3:AA54">
+    <sortCondition ref="Z3:Z54"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
